--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7.367546467383696E-14</v>
+        <v>3.841367895097409E-18</v>
       </c>
       <c r="E2">
-        <v>7.367546467383696E-14</v>
+        <v>3.841367895097409E-18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.999999686643424</v>
+        <v>0.9999998006145896</v>
       </c>
       <c r="E3">
-        <v>0.999999686643424</v>
+        <v>0.9999998006145896</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01421183778491713</v>
+        <v>0.03245693616595238</v>
       </c>
       <c r="E4">
-        <v>0.9857881622150829</v>
+        <v>0.9675430638340476</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9496354790818421</v>
+        <v>0.7484937228796658</v>
       </c>
       <c r="E5">
-        <v>0.05036452091815791</v>
+        <v>0.2515062771203342</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03335012937179533</v>
+        <v>0.04907640050221363</v>
       </c>
       <c r="E7">
-        <v>0.9666498706282046</v>
+        <v>0.9509235994977864</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,13 +531,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999996819866</v>
+        <v>0.9999998698799816</v>
       </c>
       <c r="E8">
-        <v>3.180133933966545E-10</v>
+        <v>1.301200184267159E-07</v>
       </c>
       <c r="F8">
-        <v>3.24028205871582</v>
+        <v>3.165704965591431</v>
       </c>
       <c r="G8">
         <v>0.5714285714285714</v>
